--- a/biology/Médecine/Jéjunum/Jéjunum.xlsx
+++ b/biology/Médecine/Jéjunum/Jéjunum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>J%C3%A9junum</t>
+          <t>Jéjunum</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jéjunum (de l'adjectif latin jejune, qui signifie « jeûne » ou « affamé ») est la partie centrale de l'intestin grêle, en aval du duodénum et en amont de l'iléon. Chez l'Homme adulte, il mesure en général de 2 à 8 m de long et son diamètre est de l'ordre de 2 à 4 cm. Il commence juste après l'angle de Treitz (ou angle duodéno-jéjunal), qui fait la jonction entre le duodénum et le jéjunum.
 Il apparaît plus rouge que l'iléon, cela est dû à sa vascularisation plus importante. Il n'est vascularisé que par l'artère mésentérique supérieure et ses nombreuses branches.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>J%C3%A9junum</t>
+          <t>Jéjunum</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) Gastrolab.net: le jéjunum
  Portail de l’anatomie   Portail de la médecine                    </t>
